--- a/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
+++ b/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Indigenous student attendance rates (per cent) Year 1 to 10 combined and jurisdiction, Semester 1 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Indigenous student attendance rates (per cent) Year 1 to 10 combined and jurisdiction, Semester 1</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -92,13 +92,10 @@
     <t xml:space="preserve">In May 2014, COAG agreed to a new target to close the gap between Indigenous and non-Indigenous school attendance within five years.</t>
   </si>
   <si>
-    <t xml:space="preserve">In Semester 1 2016, the attendance rate for Indigenous students was 83.4 per cent, almost 10 percentage points lower than the comparable rate for non-Indigenous students (93.1 per cent). While this is a sizeable gap, on any given school day the vast majority of Indigenous students are attending school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There has been negligible change in the rate of school attendance for Aboriginal and Torres Strait Islander children from Semester 1 2014 (83.5 per cent) to Semester 1 2016 (83.4 per cent).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was also little change in the rate of attendance for Aboriginal and Torres Strait Islander students from 2014 to 2016 by state and territory. All of the changes were less than one percentage point, apart from the Northern Territory (1.6 percentage point decrease). No jurisdictions were on track for this target in 2016. </t>
+    <t xml:space="preserve">In Semester 1 2017, the attendance rate for Indigenous students continues to be around 83 per cent, 10 percentage points lower than the comparable rate for non-Indigenous students (93 per cent). There has been negligible change in the rate of school attendance for Aboriginal and Torres Strait Islander children from Semester 1 2014 (83.5 per cent) to Semester 1 2017 (83.2 per cent).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was also little change in the rate of attendance for Indigenous students from 2014 to 2017 by State and Territory, apart from the Northern Territory (4 percentage point decrease). No jurisdictions were on track for this target in 2016. </t>
   </si>
   <si>
     <t xml:space="preserve">Progress will need to accelerate if the target is to be met.</t>
@@ -107,7 +104,7 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (from Australian Curriculum Assessment and Reporting Authority, http://www.acara.edu.au/reporting/reporting.html). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
+    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (www.acara.edu.au/reporting). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
   </si>
   <si>
     <t xml:space="preserve">The Indigenous attendance rate was counted as being on track if the attendance rate (rounded to a whole number) was equal or greater than the agreed trajectory point.</t>
@@ -128,7 +125,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,87 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,6 +168,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
@@ -259,77 +183,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -340,7 +207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,77 +231,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,7 +265,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,50 +273,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -505,7 +320,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -521,7 +336,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -551,22 +366,22 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -601,7 +416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2014</v>
       </c>
@@ -636,144 +451,144 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>81.1</v>
-      </c>
-      <c r="H4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>88.5</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="4" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>85.6</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>76.6</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>81.1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>85.4</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>86.9</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>70.9</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>86.8</v>
-      </c>
       <c r="D6" s="3" t="n">
-        <v>87.1</v>
+        <v>86.7</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>85.6</v>
+        <v>85.4</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>76.6</v>
+        <v>76.9</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>81.1</v>
+        <v>80.5</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>85.4</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>68.6</v>
+        <v>66.2</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="F7" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>89</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>86</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>88</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>78</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -792,101 +607,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="8" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
+++ b/dashboard_loader/indigenous_school_attendance_uploader/indigenous_school_attendance.xlsx
@@ -104,10 +104,10 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data has been collected, as set out in the National Standards for Student Attendance Data Reporting  (www.acara.edu.au/reporting). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Indigenous attendance rate was counted as being on track if the attendance rate (rounded to a whole number) was equal or greater than the agreed trajectory point.</t>
+    <t xml:space="preserve">From the 2014 school year onwards, nationally comparable student attendance data have been collected, as set out in the National Standards for Student Attendance Data Reporting  (www.acara.edu.au/reporting). New South Wales government school attendance data are not yet comparable with national data; comparisons with other jurisdictions and over time should be made with caution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indigenous attendance rate was counted as being on track if the attendance rate (rounded to a whole number) was equal to or greater than the agreed trajectory point.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
@@ -236,7 +236,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,10 +254,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,10 +518,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -557,10 +553,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -610,7 +606,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,74 +617,74 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="7" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -696,7 +692,7 @@
       <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
